--- a/DATASET/Hypocreales.xlsx
+++ b/DATASET/Hypocreales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="25970" windowHeight="15390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,64 +31,64 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
-    <t>Species name</t>
-  </si>
-  <si>
-    <t>Genbank number</t>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Voucher</t>
   </si>
   <si>
     <t xml:space="preserve">Akanthomyces lecanii </t>
   </si>
   <si>
-    <t>NC046840</t>
+    <t>NC_046840</t>
   </si>
   <si>
     <t xml:space="preserve">Akanthomyces muscarius </t>
   </si>
   <si>
-    <t>NC004514</t>
+    <t>NC_004514</t>
   </si>
   <si>
     <t>Beauveria amorpha</t>
   </si>
   <si>
-    <t>NC066449</t>
+    <t>NC_066449</t>
   </si>
   <si>
     <t>Beauveria bassiana</t>
   </si>
   <si>
-    <t>NC010652</t>
+    <t>NC_010652</t>
   </si>
   <si>
     <t>Beauveria brongniartii</t>
   </si>
   <si>
-    <t>NC011194</t>
+    <t>NC_011194</t>
   </si>
   <si>
     <t>Beauveria caledonica</t>
   </si>
   <si>
-    <t>NC030636</t>
+    <t>NC_030636</t>
   </si>
   <si>
     <t xml:space="preserve">Beauveria lii </t>
   </si>
   <si>
-    <t>NC053825</t>
+    <t>NC_053825</t>
   </si>
   <si>
     <t xml:space="preserve">Beauveria malawiensis </t>
   </si>
   <si>
-    <t>NC030635</t>
+    <t>NC_030635</t>
   </si>
   <si>
     <t>Beauveria pseudobassiana</t>
   </si>
   <si>
-    <t>NC022708</t>
+    <t>NC_022708</t>
   </si>
   <si>
     <t>Cordceps cicadae</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">Cordyceps blackwelliae </t>
   </si>
   <si>
-    <t>NC068268</t>
+    <t>NC_068268</t>
   </si>
   <si>
     <t>Cordyceps cocoonihabita</t>
@@ -136,19 +136,19 @@
     <t xml:space="preserve">Fusarium oxysporum </t>
   </si>
   <si>
-    <t>NC017930</t>
+    <t>NC_017930</t>
   </si>
   <si>
     <t xml:space="preserve">Fusarium solani </t>
   </si>
   <si>
-    <t>NC016680</t>
+    <t>NC_016680</t>
   </si>
   <si>
     <t xml:space="preserve">Hirsutella minnesotensis </t>
   </si>
   <si>
-    <t>NC027660</t>
+    <t>NC_027660</t>
   </si>
   <si>
     <t xml:space="preserve">Hirsutella rhossiliensis </t>
@@ -160,19 +160,19 @@
     <t xml:space="preserve">Hirsutella thompsonii </t>
   </si>
   <si>
-    <t>NC040165</t>
+    <t>NC_040165</t>
   </si>
   <si>
     <t xml:space="preserve">Hirsutella vermicola </t>
   </si>
   <si>
-    <t>NC036610</t>
+    <t>NC_036610</t>
   </si>
   <si>
     <t xml:space="preserve">Hypomyces aurantius </t>
   </si>
   <si>
-    <t>NC030206</t>
+    <t>NC_030206</t>
   </si>
   <si>
     <t>Lecanicillium fungicola</t>
@@ -184,13 +184,13 @@
     <t>Lecanicillium saksenae</t>
   </si>
   <si>
-    <t>NC028330</t>
+    <t>NC_028330</t>
   </si>
   <si>
     <t xml:space="preserve">Metarhizium anisopliae </t>
   </si>
   <si>
-    <t>NC008068</t>
+    <t>NC_008068</t>
   </si>
   <si>
     <t>Neurospora crassa</t>
@@ -202,37 +202,37 @@
     <t xml:space="preserve">Ophiocordyceps sinensis </t>
   </si>
   <si>
-    <t>NC034659</t>
+    <t>NC_034659</t>
   </si>
   <si>
     <t xml:space="preserve">Parengyodontium album </t>
   </si>
   <si>
-    <t>NC032302</t>
+    <t>NC_032302</t>
   </si>
   <si>
     <t xml:space="preserve">Pleurocordyceps sinensis </t>
   </si>
   <si>
-    <t>NC067712</t>
+    <t>NC_067712</t>
   </si>
   <si>
     <t xml:space="preserve">Pochonia chlamydosporia </t>
   </si>
   <si>
-    <t>NC022835</t>
+    <t>NC_022835</t>
   </si>
   <si>
     <t>Podospora anserina</t>
   </si>
   <si>
-    <t>NC001329</t>
+    <t>NC_001329</t>
   </si>
   <si>
     <t xml:space="preserve">Samsoniella hepiali </t>
   </si>
   <si>
-    <t>NC068092</t>
+    <t>NC_068092</t>
   </si>
   <si>
     <t xml:space="preserve">Tolypocladium cylindrosporum </t>
@@ -250,7 +250,7 @@
     <t xml:space="preserve">Tolypocladium ophioglossoides </t>
   </si>
   <si>
-    <t>NC031384</t>
+    <t>NC_031384</t>
   </si>
   <si>
     <t xml:space="preserve">Zelopaecilomyces penicillatus </t>
@@ -269,18 +269,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
     </font>
     <font>
       <i/>
@@ -787,133 +782,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -921,7 +916,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -931,9 +929,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1257,7 +1252,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
